--- a/data_excel/829.xlsx
+++ b/data_excel/829.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,9 +123,6 @@
     <t>放進</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +517,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" activeCellId="1" sqref="C8 C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -666,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,16 +737,16 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>

--- a/data_excel/829.xlsx
+++ b/data_excel/829.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>冰箱</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +521,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -663,8 +667,8 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>

--- a/data_excel/829.xlsx
+++ b/data_excel/829.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>冰箱</t>
   </si>
@@ -130,15 +130,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pv</t>
+    <t>snv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nv</t>
+    <t>bunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +172,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,14 +204,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -521,7 +544,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,7 +691,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -741,11 +764,11 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
